--- a/docs/images.xlsx
+++ b/docs/images.xlsx
@@ -25,104 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
-  <si>
-    <t>ヘッダ行　　　　</t>
-    <rPh sb="3" eb="4">
-      <t>ギョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">--input </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INPUT_FILE</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">--output </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OUTPUT_FILE</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">--env </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RANK</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">--input </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INPUT_FILE1</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">--input </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INPUT_FILE2</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>s3://path/to/hamlet.txt</t>
   </si>
@@ -143,6 +46,38 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">--input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INPUT_FILE</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--output </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OUTPUT_FILE</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">--env </t>
     </r>
     <r>
@@ -150,10 +85,8 @@
         <b/>
         <sz val="11"/>
         <color theme="9"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Consolas"/>
         <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>RANK</t>
     </r>
@@ -168,29 +101,95 @@
         <b/>
         <sz val="11"/>
         <color theme="9"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Consolas"/>
         <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+      </rPr>
+      <t>RANK</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--env </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RANK</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INPUT_FILE1</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INPUT_FILE2</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--output </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>OUTPUT_FILE</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">--env </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>TOP</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジョブ　　　　</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ジョブ１　　　　</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ジョブ２　　　　</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ジョブ３　　　　</t>
+    <t>(empty)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -201,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,31 +225,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="游ゴシック"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="8"/>
-      <name val="游ゴシック"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="9"/>
-      <name val="游ゴシック"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -305,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,14 +314,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -429,13 +431,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:colOff>1533525</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:colOff>1713525</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -446,14 +448,19 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="2876550"/>
-          <a:ext cx="304800" cy="200025"/>
+          <a:off x="1533525" y="2876550"/>
+          <a:ext cx="180000" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -486,13 +493,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:colOff>1533525</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:colOff>1713525</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -503,8 +510,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="2876550"/>
-          <a:ext cx="304800" cy="200025"/>
+          <a:off x="1533525" y="3114675"/>
+          <a:ext cx="180000" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -513,7 +520,7 @@
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg2">
-              <a:lumMod val="25000"/>
+              <a:lumMod val="50000"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -554,7 +561,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
@@ -566,7 +573,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2695575" y="1571625"/>
-          <a:ext cx="1123950" cy="380999"/>
+          <a:ext cx="1143000" cy="380999"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -608,13 +615,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1409699</xdr:colOff>
+      <xdr:colOff>1190625</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2438400</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
@@ -625,8 +632,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029199" y="1562100"/>
-          <a:ext cx="1209675" cy="380999"/>
+          <a:off x="5019675" y="1562100"/>
+          <a:ext cx="1247775" cy="380999"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -667,14 +674,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
@@ -685,8 +692,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6867525" y="1571625"/>
-          <a:ext cx="657224" cy="380999"/>
+          <a:off x="6877050" y="1571625"/>
+          <a:ext cx="609600" cy="380999"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -728,13 +735,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1333508</xdr:colOff>
+      <xdr:colOff>1333510</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1466851</xdr:colOff>
+      <xdr:colOff>1476375</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
@@ -747,8 +754,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2728916" y="2347916"/>
-          <a:ext cx="923927" cy="133343"/>
+          <a:off x="2733680" y="2343155"/>
+          <a:ext cx="923926" cy="142865"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -785,13 +792,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1447803</xdr:colOff>
+      <xdr:colOff>1447805</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2014537</xdr:colOff>
+      <xdr:colOff>1814513</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
@@ -804,8 +811,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4888706" y="2121696"/>
-          <a:ext cx="923928" cy="566734"/>
+          <a:off x="4998245" y="2221709"/>
+          <a:ext cx="923928" cy="366708"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -842,13 +849,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>752478</xdr:colOff>
+      <xdr:colOff>752480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>47623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>847726</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
@@ -861,8 +868,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6484145" y="2135982"/>
-          <a:ext cx="895350" cy="528634"/>
+          <a:off x="6686552" y="2352676"/>
+          <a:ext cx="895351" cy="95246"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -899,9 +906,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:colOff>1457325</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -911,7 +918,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3171825" y="2343150"/>
+          <a:off x="3248025" y="2362200"/>
           <a:ext cx="748923" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -955,7 +962,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1198790" cy="264560"/>
+    <xdr:ext cx="1245277" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
@@ -964,7 +971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="619125" y="1114425"/>
-          <a:ext cx="1198790" cy="264560"/>
+          <a:ext cx="1245277" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -993,7 +1000,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>wordcount-file.sh</a:t>
+            <a:t>run_wordcount.sh</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1004,11 +1011,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1568122" cy="264560"/>
+    <xdr:ext cx="1373966" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
@@ -1016,8 +1023,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="2524125"/>
-          <a:ext cx="1568122" cy="264560"/>
+          <a:off x="619125" y="2524125"/>
+          <a:ext cx="1373966" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1046,7 +1053,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>tasks-wordcount-file.tsv</a:t>
+            <a:t>tasks_wordcount.tsv</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1312,8 +1319,8 @@
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
@@ -1324,8 +1331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524874" y="3505201"/>
-          <a:ext cx="8867775" cy="590550"/>
+          <a:off x="8943974" y="3505201"/>
+          <a:ext cx="8753476" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1440,7 +1447,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
@@ -1452,7 +1459,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8467725" y="1828800"/>
+          <a:off x="8458200" y="1828800"/>
           <a:ext cx="473912" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1493,7 +1500,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
@@ -1505,7 +1512,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8486775" y="3238500"/>
+          <a:off x="8458200" y="3238500"/>
           <a:ext cx="502382" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1546,7 +1553,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
@@ -1558,7 +1565,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8486775" y="4238625"/>
+          <a:off x="8458200" y="4238625"/>
           <a:ext cx="473912" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1599,13 +1606,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:colOff>1543050</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:colOff>1723050</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -1616,8 +1623,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="3114675"/>
-          <a:ext cx="304800" cy="200025"/>
+          <a:off x="1543050" y="5019675"/>
+          <a:ext cx="180000" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1626,7 +1633,7 @@
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg2">
-              <a:lumMod val="25000"/>
+              <a:lumMod val="50000"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -1661,13 +1668,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:colOff>1543050</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:colOff>1723050</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -1678,8 +1685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="5019675"/>
-          <a:ext cx="304800" cy="200025"/>
+          <a:off x="1543050" y="5257800"/>
+          <a:ext cx="180000" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1688,7 +1695,7 @@
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg2">
-              <a:lumMod val="25000"/>
+              <a:lumMod val="50000"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -1723,13 +1730,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:colOff>1543050</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:colOff>1723050</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -1740,8 +1747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="5019675"/>
-          <a:ext cx="304800" cy="200025"/>
+          <a:off x="1543050" y="5495925"/>
+          <a:ext cx="180000" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1750,7 +1757,7 @@
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg2">
-              <a:lumMod val="25000"/>
+              <a:lumMod val="50000"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -1812,7 +1819,7 @@
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg2">
-              <a:lumMod val="50000"/>
+              <a:lumMod val="75000"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -1874,7 +1881,7 @@
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg2">
-              <a:lumMod val="50000"/>
+              <a:lumMod val="75000"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -1936,7 +1943,7 @@
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg2">
-              <a:lumMod val="50000"/>
+              <a:lumMod val="75000"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -1971,13 +1978,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>161926</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -1988,8 +1995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8372475" y="3152775"/>
-          <a:ext cx="9144000" cy="2009775"/>
+          <a:off x="8791576" y="3152775"/>
+          <a:ext cx="9029700" cy="2009775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1998,7 +2005,7 @@
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="bg2">
-              <a:lumMod val="50000"/>
+              <a:lumMod val="75000"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -2030,6 +2037,267 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>884116</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="603883" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="884116" y="2838450"/>
+          <a:ext cx="603883" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Header</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="440249" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="3095625"/>
+          <a:ext cx="440249" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Task</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="511743" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="4972050"/>
+          <a:ext cx="511743" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Task1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="511743" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="5219700"/>
+          <a:ext cx="511743" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Task2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="511743" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="5476875"/>
+          <a:ext cx="511743" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Task3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2408,50 +2676,51 @@
   <dimension ref="A10:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
     <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="H10" s="4" t="s">
-        <v>4</v>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="H11" s="3" t="s">
-        <v>6</v>
+      <c r="H11" s="4" t="s">
+        <v>0</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>8</v>
+      <c r="I11" s="4" t="s">
+        <v>2</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>7</v>
+      <c r="J11" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="K11" s="5">
         <v>50</v>
@@ -2461,28 +2730,24 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
+      <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>3</v>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
+      <c r="A14" s="1"/>
+      <c r="B14" s="4" t="s">
+        <v>0</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
+      <c r="C14" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D14" s="5">
         <v>100</v>
@@ -2495,57 +2760,53 @@
       <c r="A16" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H20" s="4"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="4" t="s">
-        <v>1</v>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>2</v>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>3</v>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
+      <c r="A22" s="1"/>
+      <c r="B22" s="4" t="s">
+        <v>0</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
+      <c r="C22" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D22" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
+      <c r="A23" s="1"/>
+      <c r="B23" s="4" t="s">
+        <v>2</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
+      <c r="C23" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="D23" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
+      <c r="A24" s="1"/>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="D24" s="5">
         <v>100</v>

--- a/docs/images.xlsx
+++ b/docs/images.xlsx
@@ -1980,13 +1980,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1995,8 +1995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8791576" y="3152775"/>
-          <a:ext cx="9029700" cy="2009775"/>
+          <a:off x="8791576" y="3152776"/>
+          <a:ext cx="9029700" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2676,7 +2676,7 @@
   <dimension ref="A10:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
